--- a/scene.xlsx
+++ b/scene.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,70 +34,120 @@
     <t>CS</t>
   </si>
   <si>
-    <t>DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdasda1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdasda2</t>
-  </si>
-  <si>
-    <t>asdasda3</t>
-  </si>
-  <si>
-    <t>asdasda5</t>
-  </si>
-  <si>
-    <t>asdasda6</t>
-  </si>
-  <si>
-    <t>asdasda7</t>
-  </si>
-  <si>
-    <t>asdasda9</t>
-  </si>
-  <si>
-    <t>asdasda10</t>
-  </si>
-  <si>
-    <t>asdasda11</t>
-  </si>
-  <si>
-    <t>asdasda12</t>
-  </si>
-  <si>
-    <t>asdasda13</t>
-  </si>
-  <si>
-    <t>asdasda14</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asda\nsda4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asda\nsda8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">地图类型：1. 野外; 2. 副本 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneName1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneName2</t>
+  </si>
+  <si>
+    <t>SceneName3</t>
+  </si>
+  <si>
+    <t>SceneName4</t>
+  </si>
+  <si>
+    <t>SceneName5</t>
+  </si>
+  <si>
+    <t>SceneName6</t>
+  </si>
+  <si>
+    <t>SceneName7</t>
+  </si>
+  <si>
+    <t>SceneName8</t>
+  </si>
+  <si>
+    <t>SceneName9</t>
+  </si>
+  <si>
+    <t>SceneName10</t>
+  </si>
+  <si>
+    <t>SceneName11</t>
+  </si>
+  <si>
+    <t>SceneName12</t>
+  </si>
+  <si>
+    <t>SceneName13</t>
+  </si>
+  <si>
+    <t>SceneName14</t>
+  </si>
+  <si>
+    <t>SceneSource1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneSource2</t>
+  </si>
+  <si>
+    <t>SceneSource3</t>
+  </si>
+  <si>
+    <t>SceneSource4</t>
+  </si>
+  <si>
+    <t>SceneSource5</t>
+  </si>
+  <si>
+    <t>SceneSource6</t>
+  </si>
+  <si>
+    <t>SceneSource7</t>
+  </si>
+  <si>
+    <t>SceneSource8</t>
+  </si>
+  <si>
+    <t>SceneSource9</t>
+  </si>
+  <si>
+    <t>SceneSource10</t>
+  </si>
+  <si>
+    <t>SceneSource11</t>
+  </si>
+  <si>
+    <t>SceneSource12</t>
+  </si>
+  <si>
+    <t>SceneSource13</t>
+  </si>
+  <si>
+    <t>SceneSource14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +159,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -133,8 +191,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,20 +498,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="20.36328125" customWidth="1"/>
     <col min="3" max="3" width="37.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,19 +522,25 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -484,27 +550,25 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -512,21 +576,27 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -534,10 +604,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -545,10 +618,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -556,10 +632,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>6</v>
       </c>
@@ -567,10 +646,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>7</v>
       </c>
@@ -578,10 +660,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>8</v>
       </c>
@@ -589,10 +674,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>9</v>
       </c>
@@ -600,10 +688,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>10</v>
       </c>
@@ -611,10 +702,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>11</v>
       </c>
@@ -622,10 +716,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>12</v>
       </c>
@@ -633,38 +730,47 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:D3">
       <formula1>"CS,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:D2">
       <formula1>"String,int,bool"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="Key" sqref="C5">

--- a/scene.xlsx
+++ b/scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,27 +146,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -193,7 +185,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -212,7 +204,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,16 +492,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
